--- a/test case.xlsx
+++ b/test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LUC\jupyter\2023_lab_product_line\SD_SPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B447522-F2BA-438C-8F95-792DBF218058}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A21246-8405-490C-B65E-2ADE89DF6574}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{ED1B1FC5-2511-4FFF-8433-6C8B383B13B8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="423">
   <si>
     <t>TID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,6 +1436,78 @@
   </si>
   <si>
     <t>SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1475,14 +1547,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1571,6 +1635,15 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1802,7 +1875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1821,53 +1894,221 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1875,18 +2116,27 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1897,397 +2147,262 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3060,8 +3175,8 @@
   </sheetPr>
   <dimension ref="A1:L567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B419" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F446" sqref="F446"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E444" sqref="E444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3089,14 +3204,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -4372,11 +4487,11 @@
       <c r="B64" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="145" t="s">
+      <c r="C64" s="122" t="s">
         <v>334</v>
       </c>
-      <c r="D64" s="146"/>
-      <c r="E64" s="147"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="124"/>
       <c r="F64" s="27">
         <v>1151</v>
       </c>
@@ -4394,11 +4509,11 @@
       <c r="B65" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C65" s="145" t="s">
+      <c r="C65" s="122" t="s">
         <v>335</v>
       </c>
-      <c r="D65" s="146"/>
-      <c r="E65" s="147"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="124"/>
       <c r="F65" s="27">
         <v>124</v>
       </c>
@@ -4410,11 +4525,11 @@
       <c r="B66" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="145" t="s">
+      <c r="C66" s="122" t="s">
         <v>336</v>
       </c>
-      <c r="D66" s="146"/>
-      <c r="E66" s="147"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="124"/>
       <c r="F66" s="27">
         <v>155</v>
       </c>
@@ -4432,11 +4547,11 @@
       <c r="B67" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="145" t="s">
+      <c r="C67" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="D67" s="146"/>
-      <c r="E67" s="147"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="124"/>
       <c r="F67" s="27">
         <v>132</v>
       </c>
@@ -4454,11 +4569,11 @@
       <c r="B68" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="145" t="s">
+      <c r="C68" s="122" t="s">
         <v>338</v>
       </c>
-      <c r="D68" s="146"/>
-      <c r="E68" s="147"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="124"/>
       <c r="F68" s="27">
         <v>245</v>
       </c>
@@ -4477,11 +4592,11 @@
       <c r="B69" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="145" t="s">
+      <c r="C69" s="122" t="s">
         <v>339</v>
       </c>
-      <c r="D69" s="146"/>
-      <c r="E69" s="147"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="124"/>
       <c r="F69" s="27">
         <v>111</v>
       </c>
@@ -4515,14 +4630,14 @@
       <c r="F72" s="93"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="136" t="s">
+      <c r="A73" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
@@ -5837,11 +5952,11 @@
       <c r="B139" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C139" s="127" t="s">
+      <c r="C139" s="125" t="s">
         <v>334</v>
       </c>
-      <c r="D139" s="128"/>
-      <c r="E139" s="129"/>
+      <c r="D139" s="126"/>
+      <c r="E139" s="127"/>
       <c r="F139" s="71">
         <v>30</v>
       </c>
@@ -5859,11 +5974,11 @@
       <c r="B140" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C140" s="127" t="s">
+      <c r="C140" s="125" t="s">
         <v>335</v>
       </c>
-      <c r="D140" s="128"/>
-      <c r="E140" s="129"/>
+      <c r="D140" s="126"/>
+      <c r="E140" s="127"/>
       <c r="F140" s="71">
         <v>30</v>
       </c>
@@ -5881,11 +5996,11 @@
       <c r="B141" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C141" s="127" t="s">
+      <c r="C141" s="125" t="s">
         <v>336</v>
       </c>
-      <c r="D141" s="128"/>
-      <c r="E141" s="129"/>
+      <c r="D141" s="126"/>
+      <c r="E141" s="127"/>
       <c r="F141" s="71">
         <v>30</v>
       </c>
@@ -5903,11 +6018,11 @@
       <c r="B142" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C142" s="127" t="s">
+      <c r="C142" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="D142" s="128"/>
-      <c r="E142" s="129"/>
+      <c r="D142" s="126"/>
+      <c r="E142" s="127"/>
       <c r="F142" s="71">
         <v>30</v>
       </c>
@@ -5925,11 +6040,11 @@
       <c r="B143" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C143" s="127" t="s">
+      <c r="C143" s="125" t="s">
         <v>338</v>
       </c>
-      <c r="D143" s="128"/>
-      <c r="E143" s="129"/>
+      <c r="D143" s="126"/>
+      <c r="E143" s="127"/>
       <c r="F143" s="71">
         <v>30</v>
       </c>
@@ -5941,11 +6056,11 @@
       <c r="B144" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C144" s="127" t="s">
+      <c r="C144" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="D144" s="128"/>
-      <c r="E144" s="129"/>
+      <c r="D144" s="126"/>
+      <c r="E144" s="127"/>
       <c r="F144" s="71">
         <v>30</v>
       </c>
@@ -5963,11 +6078,11 @@
       <c r="B145" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C145" s="130" t="s">
+      <c r="C145" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="D145" s="131"/>
-      <c r="E145" s="132"/>
+      <c r="D145" s="129"/>
+      <c r="E145" s="130"/>
       <c r="F145" s="20">
         <v>1625</v>
       </c>
@@ -5985,11 +6100,11 @@
       <c r="B146" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C146" s="130" t="s">
+      <c r="C146" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="D146" s="131"/>
-      <c r="E146" s="132"/>
+      <c r="D146" s="129"/>
+      <c r="E146" s="130"/>
       <c r="F146" s="20">
         <v>165</v>
       </c>
@@ -6008,11 +6123,11 @@
       <c r="B147" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C147" s="130" t="s">
+      <c r="C147" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="D147" s="131"/>
-      <c r="E147" s="132"/>
+      <c r="D147" s="129"/>
+      <c r="E147" s="130"/>
       <c r="F147" s="20">
         <v>144</v>
       </c>
@@ -6025,14 +6140,14 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="138" t="s">
+      <c r="A151" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B151" s="139"/>
-      <c r="C151" s="139"/>
-      <c r="D151" s="139"/>
-      <c r="E151" s="139"/>
-      <c r="F151" s="140"/>
+      <c r="B151" s="116"/>
+      <c r="C151" s="116"/>
+      <c r="D151" s="116"/>
+      <c r="E151" s="116"/>
+      <c r="F151" s="117"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
@@ -7573,11 +7688,11 @@
       <c r="B228" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C228" s="127" t="s">
+      <c r="C228" s="125" t="s">
         <v>334</v>
       </c>
-      <c r="D228" s="128"/>
-      <c r="E228" s="129"/>
+      <c r="D228" s="126"/>
+      <c r="E228" s="127"/>
       <c r="F228" s="86">
         <v>30</v>
       </c>
@@ -7595,11 +7710,11 @@
       <c r="B229" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C229" s="127" t="s">
+      <c r="C229" s="125" t="s">
         <v>335</v>
       </c>
-      <c r="D229" s="128"/>
-      <c r="E229" s="129"/>
+      <c r="D229" s="126"/>
+      <c r="E229" s="127"/>
       <c r="F229" s="86">
         <v>30</v>
       </c>
@@ -7617,11 +7732,11 @@
       <c r="B230" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C230" s="127" t="s">
+      <c r="C230" s="125" t="s">
         <v>336</v>
       </c>
-      <c r="D230" s="128"/>
-      <c r="E230" s="129"/>
+      <c r="D230" s="126"/>
+      <c r="E230" s="127"/>
       <c r="F230" s="86">
         <v>30</v>
       </c>
@@ -7639,11 +7754,11 @@
       <c r="B231" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C231" s="127" t="s">
+      <c r="C231" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="D231" s="128"/>
-      <c r="E231" s="129"/>
+      <c r="D231" s="126"/>
+      <c r="E231" s="127"/>
       <c r="F231" s="86">
         <v>30</v>
       </c>
@@ -7655,11 +7770,11 @@
       <c r="B232" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C232" s="127" t="s">
+      <c r="C232" s="125" t="s">
         <v>338</v>
       </c>
-      <c r="D232" s="128"/>
-      <c r="E232" s="129"/>
+      <c r="D232" s="126"/>
+      <c r="E232" s="127"/>
       <c r="F232" s="86">
         <v>30</v>
       </c>
@@ -7677,11 +7792,11 @@
       <c r="B233" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C233" s="127" t="s">
+      <c r="C233" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="D233" s="128"/>
-      <c r="E233" s="129"/>
+      <c r="D233" s="126"/>
+      <c r="E233" s="127"/>
       <c r="F233" s="86">
         <v>30</v>
       </c>
@@ -7699,11 +7814,11 @@
       <c r="B234" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="C234" s="124" t="s">
+      <c r="C234" s="131" t="s">
         <v>341</v>
       </c>
-      <c r="D234" s="125"/>
-      <c r="E234" s="126"/>
+      <c r="D234" s="132"/>
+      <c r="E234" s="133"/>
       <c r="F234" s="31">
         <v>1544</v>
       </c>
@@ -7722,11 +7837,11 @@
       <c r="B235" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="C235" s="124" t="s">
+      <c r="C235" s="131" t="s">
         <v>341</v>
       </c>
-      <c r="D235" s="125"/>
-      <c r="E235" s="126"/>
+      <c r="D235" s="132"/>
+      <c r="E235" s="133"/>
       <c r="F235" s="31">
         <v>166</v>
       </c>
@@ -7739,14 +7854,14 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" s="141" t="s">
+      <c r="A239" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="B239" s="142"/>
-      <c r="C239" s="142"/>
-      <c r="D239" s="142"/>
-      <c r="E239" s="142"/>
-      <c r="F239" s="143"/>
+      <c r="B239" s="119"/>
+      <c r="C239" s="119"/>
+      <c r="D239" s="119"/>
+      <c r="E239" s="119"/>
+      <c r="F239" s="120"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
@@ -9375,11 +9490,11 @@
       <c r="B321" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C321" s="127" t="s">
+      <c r="C321" s="125" t="s">
         <v>334</v>
       </c>
-      <c r="D321" s="128"/>
-      <c r="E321" s="129"/>
+      <c r="D321" s="126"/>
+      <c r="E321" s="127"/>
       <c r="F321" s="86">
         <v>30</v>
       </c>
@@ -9397,11 +9512,11 @@
       <c r="B322" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C322" s="127" t="s">
+      <c r="C322" s="125" t="s">
         <v>335</v>
       </c>
-      <c r="D322" s="128"/>
-      <c r="E322" s="129"/>
+      <c r="D322" s="126"/>
+      <c r="E322" s="127"/>
       <c r="F322" s="86">
         <v>30</v>
       </c>
@@ -9419,11 +9534,11 @@
       <c r="B323" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C323" s="127" t="s">
+      <c r="C323" s="125" t="s">
         <v>336</v>
       </c>
-      <c r="D323" s="128"/>
-      <c r="E323" s="129"/>
+      <c r="D323" s="126"/>
+      <c r="E323" s="127"/>
       <c r="F323" s="86">
         <v>30</v>
       </c>
@@ -9441,11 +9556,11 @@
       <c r="B324" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C324" s="127" t="s">
+      <c r="C324" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="D324" s="128"/>
-      <c r="E324" s="129"/>
+      <c r="D324" s="126"/>
+      <c r="E324" s="127"/>
       <c r="F324" s="86">
         <v>30</v>
       </c>
@@ -9463,11 +9578,11 @@
       <c r="B325" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C325" s="127" t="s">
+      <c r="C325" s="125" t="s">
         <v>338</v>
       </c>
-      <c r="D325" s="128"/>
-      <c r="E325" s="129"/>
+      <c r="D325" s="126"/>
+      <c r="E325" s="127"/>
       <c r="F325" s="86">
         <v>30</v>
       </c>
@@ -9485,11 +9600,11 @@
       <c r="B326" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C326" s="127" t="s">
+      <c r="C326" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="D326" s="128"/>
-      <c r="E326" s="129"/>
+      <c r="D326" s="126"/>
+      <c r="E326" s="127"/>
       <c r="F326" s="86">
         <v>30</v>
       </c>
@@ -9501,11 +9616,11 @@
       <c r="B327" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="C327" s="115" t="s">
+      <c r="C327" s="134" t="s">
         <v>341</v>
       </c>
-      <c r="D327" s="116"/>
-      <c r="E327" s="117"/>
+      <c r="D327" s="135"/>
+      <c r="E327" s="136"/>
       <c r="F327" s="70">
         <v>30</v>
       </c>
@@ -9523,11 +9638,11 @@
       <c r="B328" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="C328" s="115" t="s">
+      <c r="C328" s="134" t="s">
         <v>341</v>
       </c>
-      <c r="D328" s="116"/>
-      <c r="E328" s="117"/>
+      <c r="D328" s="135"/>
+      <c r="E328" s="136"/>
       <c r="F328" s="70">
         <v>30</v>
       </c>
@@ -9545,11 +9660,11 @@
       <c r="B329" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C329" s="118" t="s">
+      <c r="C329" s="137" t="s">
         <v>342</v>
       </c>
-      <c r="D329" s="119"/>
-      <c r="E329" s="120"/>
+      <c r="D329" s="138"/>
+      <c r="E329" s="139"/>
       <c r="F329" s="37">
         <v>1942</v>
       </c>
@@ -9568,11 +9683,11 @@
       <c r="B330" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C330" s="118" t="s">
+      <c r="C330" s="137" t="s">
         <v>342</v>
       </c>
-      <c r="D330" s="119"/>
-      <c r="E330" s="120"/>
+      <c r="D330" s="138"/>
+      <c r="E330" s="139"/>
       <c r="F330" s="37">
         <v>211</v>
       </c>
@@ -9609,14 +9724,14 @@
       <c r="F333"/>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A334" s="144" t="s">
+      <c r="A334" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="B334" s="114"/>
-      <c r="C334" s="114"/>
-      <c r="D334" s="114"/>
-      <c r="E334" s="114"/>
-      <c r="F334" s="114"/>
+      <c r="B334" s="112"/>
+      <c r="C334" s="112"/>
+      <c r="D334" s="112"/>
+      <c r="E334" s="112"/>
+      <c r="F334" s="112"/>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
@@ -11401,11 +11516,11 @@
       <c r="B423" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C423" s="127" t="s">
+      <c r="C423" s="125" t="s">
         <v>334</v>
       </c>
-      <c r="D423" s="128"/>
-      <c r="E423" s="129"/>
+      <c r="D423" s="126"/>
+      <c r="E423" s="127"/>
       <c r="F423" s="86">
         <v>30</v>
       </c>
@@ -11423,11 +11538,11 @@
       <c r="B424" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C424" s="127" t="s">
+      <c r="C424" s="125" t="s">
         <v>335</v>
       </c>
-      <c r="D424" s="128"/>
-      <c r="E424" s="129"/>
+      <c r="D424" s="126"/>
+      <c r="E424" s="127"/>
       <c r="F424" s="86">
         <v>30</v>
       </c>
@@ -11445,11 +11560,11 @@
       <c r="B425" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C425" s="127" t="s">
+      <c r="C425" s="125" t="s">
         <v>336</v>
       </c>
-      <c r="D425" s="128"/>
-      <c r="E425" s="129"/>
+      <c r="D425" s="126"/>
+      <c r="E425" s="127"/>
       <c r="F425" s="86">
         <v>30</v>
       </c>
@@ -11467,11 +11582,11 @@
       <c r="B426" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C426" s="127" t="s">
+      <c r="C426" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="D426" s="128"/>
-      <c r="E426" s="129"/>
+      <c r="D426" s="126"/>
+      <c r="E426" s="127"/>
       <c r="F426" s="86">
         <v>30</v>
       </c>
@@ -11483,15 +11598,15 @@
       <c r="B427" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C427" s="127" t="s">
+      <c r="C427" s="125" t="s">
         <v>338</v>
       </c>
-      <c r="D427" s="128"/>
-      <c r="E427" s="129"/>
+      <c r="D427" s="126"/>
+      <c r="E427" s="127"/>
       <c r="F427" s="86">
         <v>30</v>
       </c>
-      <c r="K427" s="113" t="s">
+      <c r="K427" s="155" t="s">
         <v>344</v>
       </c>
       <c r="L427" s="96">
@@ -11505,15 +11620,15 @@
       <c r="B428" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C428" s="127" t="s">
+      <c r="C428" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="D428" s="128"/>
-      <c r="E428" s="129"/>
+      <c r="D428" s="126"/>
+      <c r="E428" s="127"/>
       <c r="F428" s="86">
         <v>30</v>
       </c>
-      <c r="K428" s="114"/>
+      <c r="K428" s="112"/>
       <c r="L428" s="96">
         <v>1.7370000000000001</v>
       </c>
@@ -11525,11 +11640,11 @@
       <c r="B429" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C429" s="121" t="s">
+      <c r="C429" s="143" t="s">
         <v>340</v>
       </c>
-      <c r="D429" s="122"/>
-      <c r="E429" s="123"/>
+      <c r="D429" s="144"/>
+      <c r="E429" s="145"/>
       <c r="F429" s="51">
         <v>30</v>
       </c>
@@ -11539,7 +11654,7 @@
       <c r="I429" s="63">
         <v>64</v>
       </c>
-      <c r="K429" s="114"/>
+      <c r="K429" s="112"/>
       <c r="L429" s="96">
         <v>1.7170000000000001</v>
       </c>
@@ -11551,11 +11666,11 @@
       <c r="B430" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C430" s="121" t="s">
+      <c r="C430" s="143" t="s">
         <v>340</v>
       </c>
-      <c r="D430" s="122"/>
-      <c r="E430" s="123"/>
+      <c r="D430" s="144"/>
+      <c r="E430" s="145"/>
       <c r="F430" s="51">
         <v>30</v>
       </c>
@@ -11565,7 +11680,7 @@
       <c r="I430" s="63">
         <v>6</v>
       </c>
-      <c r="K430" s="114"/>
+      <c r="K430" s="112"/>
       <c r="L430" s="96">
         <v>1.696</v>
       </c>
@@ -11577,11 +11692,11 @@
       <c r="B431" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C431" s="121" t="s">
+      <c r="C431" s="143" t="s">
         <v>340</v>
       </c>
-      <c r="D431" s="122"/>
-      <c r="E431" s="123"/>
+      <c r="D431" s="144"/>
+      <c r="E431" s="145"/>
       <c r="F431" s="51">
         <v>30</v>
       </c>
@@ -11591,7 +11706,7 @@
       <c r="I431" s="63">
         <v>14</v>
       </c>
-      <c r="K431" s="114"/>
+      <c r="K431" s="112"/>
       <c r="L431" s="96">
         <v>1.726</v>
       </c>
@@ -11603,11 +11718,11 @@
       <c r="B432" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="C432" s="115" t="s">
+      <c r="C432" s="134" t="s">
         <v>341</v>
       </c>
-      <c r="D432" s="116"/>
-      <c r="E432" s="117"/>
+      <c r="D432" s="135"/>
+      <c r="E432" s="136"/>
       <c r="F432" s="70">
         <v>30</v>
       </c>
@@ -11632,11 +11747,11 @@
       <c r="B433" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="C433" s="115" t="s">
+      <c r="C433" s="134" t="s">
         <v>341</v>
       </c>
-      <c r="D433" s="116"/>
-      <c r="E433" s="117"/>
+      <c r="D433" s="135"/>
+      <c r="E433" s="136"/>
       <c r="F433" s="70">
         <v>30</v>
       </c>
@@ -11654,15 +11769,15 @@
       <c r="B434" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="C434" s="101" t="s">
+      <c r="C434" s="140" t="s">
         <v>342</v>
       </c>
-      <c r="D434" s="102"/>
-      <c r="E434" s="103"/>
+      <c r="D434" s="141"/>
+      <c r="E434" s="142"/>
       <c r="F434" s="57">
         <v>30</v>
       </c>
-      <c r="K434" s="113" t="s">
+      <c r="K434" s="155" t="s">
         <v>354</v>
       </c>
       <c r="L434" s="97">
@@ -11676,11 +11791,11 @@
       <c r="B435" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="C435" s="101" t="s">
+      <c r="C435" s="140" t="s">
         <v>342</v>
       </c>
-      <c r="D435" s="102"/>
-      <c r="E435" s="103"/>
+      <c r="D435" s="141"/>
+      <c r="E435" s="142"/>
       <c r="F435" s="57">
         <v>30</v>
       </c>
@@ -11690,7 +11805,7 @@
       <c r="I435" s="63">
         <v>10</v>
       </c>
-      <c r="K435" s="114"/>
+      <c r="K435" s="112"/>
       <c r="L435" s="96">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -11702,11 +11817,11 @@
       <c r="B436" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="C436" s="104" t="s">
+      <c r="C436" s="146" t="s">
         <v>343</v>
       </c>
-      <c r="D436" s="105"/>
-      <c r="E436" s="106"/>
+      <c r="D436" s="147"/>
+      <c r="E436" s="148"/>
       <c r="F436" s="50">
         <v>2485</v>
       </c>
@@ -11716,7 +11831,7 @@
       <c r="I436" s="63">
         <v>102</v>
       </c>
-      <c r="K436" s="114"/>
+      <c r="K436" s="112"/>
       <c r="L436" s="96">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -11728,9 +11843,9 @@
       <c r="B437" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="C437" s="107"/>
-      <c r="D437" s="108"/>
-      <c r="E437" s="109"/>
+      <c r="C437" s="149"/>
+      <c r="D437" s="150"/>
+      <c r="E437" s="151"/>
       <c r="F437" s="50">
         <v>2152</v>
       </c>
@@ -11741,7 +11856,7 @@
         <f>SUM(F336:F438)</f>
         <v>16328</v>
       </c>
-      <c r="K437" s="114"/>
+      <c r="K437" s="112"/>
       <c r="L437" s="96">
         <v>8.1000000000000003E-2</v>
       </c>
@@ -11753,9 +11868,9 @@
       <c r="B438" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C438" s="110"/>
-      <c r="D438" s="111"/>
-      <c r="E438" s="112"/>
+      <c r="C438" s="152"/>
+      <c r="D438" s="153"/>
+      <c r="E438" s="154"/>
       <c r="F438" s="50">
         <v>505</v>
       </c>
@@ -11766,7 +11881,7 @@
         <f>I437/3600</f>
         <v>4.5355555555555558</v>
       </c>
-      <c r="K438" s="114"/>
+      <c r="K438" s="112"/>
       <c r="L438" s="96">
         <v>7.3999999999999996E-2</v>
       </c>
@@ -11797,9 +11912,15 @@
       <c r="I440" s="75"/>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A441"/>
-      <c r="B441"/>
-      <c r="C441"/>
+      <c r="A441" s="99" t="s">
+        <v>419</v>
+      </c>
+      <c r="B441" s="166" t="s">
+        <v>420</v>
+      </c>
+      <c r="C441" s="99" t="s">
+        <v>421</v>
+      </c>
       <c r="D441"/>
       <c r="E441"/>
       <c r="F441"/>
@@ -11812,9 +11933,16 @@
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A442"/>
-      <c r="B442"/>
-      <c r="C442"/>
+      <c r="A442" s="95" t="s">
+        <v>414</v>
+      </c>
+      <c r="B442" s="165">
+        <f>I66</f>
+        <v>67</v>
+      </c>
+      <c r="C442" s="164">
+        <v>6</v>
+      </c>
       <c r="D442"/>
       <c r="E442"/>
       <c r="F442"/>
@@ -11827,9 +11955,16 @@
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A443"/>
-      <c r="B443"/>
-      <c r="C443"/>
+      <c r="A443" s="156" t="s">
+        <v>415</v>
+      </c>
+      <c r="B443" s="167">
+        <f>I139</f>
+        <v>8</v>
+      </c>
+      <c r="C443" s="168">
+        <v>3</v>
+      </c>
       <c r="D443"/>
       <c r="E443"/>
       <c r="F443"/>
@@ -11842,9 +11977,16 @@
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A444"/>
-      <c r="B444"/>
-      <c r="C444"/>
+      <c r="A444" s="158" t="s">
+        <v>416</v>
+      </c>
+      <c r="B444" s="169">
+        <f>I228</f>
+        <v>18</v>
+      </c>
+      <c r="C444" s="170">
+        <v>2</v>
+      </c>
       <c r="D444"/>
       <c r="E444"/>
       <c r="F444"/>
@@ -11857,9 +11999,16 @@
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A445"/>
-      <c r="B445"/>
-      <c r="C445"/>
+      <c r="A445" s="161" t="s">
+        <v>417</v>
+      </c>
+      <c r="B445" s="171">
+        <f>I324</f>
+        <v>11</v>
+      </c>
+      <c r="C445" s="172">
+        <v>2</v>
+      </c>
       <c r="D445"/>
       <c r="E445"/>
       <c r="F445"/>
@@ -11872,17 +12021,32 @@
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A446"/>
-      <c r="B446"/>
-      <c r="C446"/>
+      <c r="A446" s="173" t="s">
+        <v>418</v>
+      </c>
+      <c r="B446" s="174">
+        <f>I433</f>
+        <v>10</v>
+      </c>
+      <c r="C446" s="175">
+        <v>3</v>
+      </c>
       <c r="D446"/>
       <c r="E446"/>
       <c r="F446"/>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A447"/>
-      <c r="B447"/>
-      <c r="C447"/>
+      <c r="A447" s="95" t="s">
+        <v>422</v>
+      </c>
+      <c r="B447" s="165">
+        <f>SUM(B442:B446)</f>
+        <v>114</v>
+      </c>
+      <c r="C447" s="164">
+        <f>SUM(C442:C446)</f>
+        <v>16</v>
+      </c>
       <c r="D447"/>
       <c r="E447"/>
       <c r="F447"/>
@@ -11896,13 +12060,13 @@
       <c r="F448"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A449" s="133" t="s">
+      <c r="A449" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="B449" s="134"/>
-      <c r="C449" s="134"/>
-      <c r="D449" s="134"/>
-      <c r="E449" s="135"/>
+      <c r="B449" s="110"/>
+      <c r="C449" s="110"/>
+      <c r="D449" s="110"/>
+      <c r="E449" s="111"/>
       <c r="F449"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -11936,7 +12100,9 @@
       <c r="D451" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E451" s="95"/>
+      <c r="E451" s="162" t="s">
+        <v>412</v>
+      </c>
       <c r="F451"/>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -11952,7 +12118,9 @@
       <c r="D452" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E452" s="152"/>
+      <c r="E452" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F452"/>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -11968,7 +12136,9 @@
       <c r="D453" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E453" s="152"/>
+      <c r="E453" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F453"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -11984,7 +12154,9 @@
       <c r="D454" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E454" s="152"/>
+      <c r="E454" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F454"/>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -12000,7 +12172,9 @@
       <c r="D455" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E455" s="152"/>
+      <c r="E455" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F455"/>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -12016,7 +12190,9 @@
       <c r="D456" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E456" s="152"/>
+      <c r="E456" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F456"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -12032,7 +12208,9 @@
       <c r="D457" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E457" s="152"/>
+      <c r="E457" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F457"/>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -12048,7 +12226,9 @@
       <c r="D458" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E458" s="152"/>
+      <c r="E458" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F458"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -12064,7 +12244,9 @@
       <c r="D459" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E459" s="152"/>
+      <c r="E459" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F459"/>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -12080,7 +12262,9 @@
       <c r="D460" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E460" s="152"/>
+      <c r="E460" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F460"/>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -12096,7 +12280,9 @@
       <c r="D461" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E461" s="152"/>
+      <c r="E461" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F461"/>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -12112,7 +12298,9 @@
       <c r="D462" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E462" s="152"/>
+      <c r="E462" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F462"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -12128,7 +12316,9 @@
       <c r="D463" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E463" s="152"/>
+      <c r="E463" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F463"/>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -12144,7 +12334,9 @@
       <c r="D464" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E464" s="152"/>
+      <c r="E464" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F464"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -12160,7 +12352,9 @@
       <c r="D465" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E465" s="152"/>
+      <c r="E465" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F465"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -12176,7 +12370,9 @@
       <c r="D466" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E466" s="152"/>
+      <c r="E466" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F466"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -12192,7 +12388,9 @@
       <c r="D467" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E467" s="152"/>
+      <c r="E467" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F467"/>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -12208,7 +12406,9 @@
       <c r="D468" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="E468" s="152"/>
+      <c r="E468" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F468"/>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -12224,7 +12424,9 @@
       <c r="D469" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E469" s="152"/>
+      <c r="E469" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F469"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -12240,7 +12442,9 @@
       <c r="D470" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E470" s="152"/>
+      <c r="E470" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F470"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -12256,7 +12460,9 @@
       <c r="D471" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E471" s="95"/>
+      <c r="E471" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F471"/>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -12272,7 +12478,9 @@
       <c r="D472" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E472" s="152"/>
+      <c r="E472" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F472"/>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -12288,7 +12496,9 @@
       <c r="D473" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E473" s="152"/>
+      <c r="E473" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F473"/>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -12304,7 +12514,9 @@
       <c r="D474" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E474" s="152"/>
+      <c r="E474" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F474"/>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -12320,7 +12532,9 @@
       <c r="D475" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E475" s="152"/>
+      <c r="E475" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F475"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -12336,7 +12550,9 @@
       <c r="D476" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="E476" s="152"/>
+      <c r="E476" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F476"/>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -12352,7 +12568,9 @@
       <c r="D477" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E477" s="152"/>
+      <c r="E477" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F477"/>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -12368,7 +12586,9 @@
       <c r="D478" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="E478" s="152"/>
+      <c r="E478" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F478"/>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -12384,7 +12604,9 @@
       <c r="D479" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="E479" s="152"/>
+      <c r="E479" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F479"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -12400,7 +12622,9 @@
       <c r="D480" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E480" s="152"/>
+      <c r="E480" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F480"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -12416,7 +12640,9 @@
       <c r="D481" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E481" s="152"/>
+      <c r="E481" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F481"/>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -12432,7 +12658,9 @@
       <c r="D482" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="E482" s="152"/>
+      <c r="E482" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F482"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -12448,7 +12676,9 @@
       <c r="D483" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E483" s="153"/>
+      <c r="E483" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F483"/>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -12464,7 +12694,9 @@
       <c r="D484" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="E484" s="153"/>
+      <c r="E484" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F484"/>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -12480,7 +12712,9 @@
       <c r="D485" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E485" s="153"/>
+      <c r="E485" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F485"/>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -12496,7 +12730,9 @@
       <c r="D486" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="E486" s="153"/>
+      <c r="E486" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F486"/>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -12512,7 +12748,9 @@
       <c r="D487" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E487" s="153"/>
+      <c r="E487" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F487"/>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -12528,7 +12766,9 @@
       <c r="D488" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="E488" s="153"/>
+      <c r="E488" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F488"/>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -12544,7 +12784,9 @@
       <c r="D489" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E489" s="95"/>
+      <c r="E489" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F489"/>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -12560,7 +12802,9 @@
       <c r="D490" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E490" s="95"/>
+      <c r="E490" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F490"/>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -12576,7 +12820,9 @@
       <c r="D491" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E491" s="152"/>
+      <c r="E491" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F491"/>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -12592,7 +12838,9 @@
       <c r="D492" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E492" s="152"/>
+      <c r="E492" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F492"/>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -12608,7 +12856,9 @@
       <c r="D493" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E493" s="152"/>
+      <c r="E493" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F493"/>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -12624,7 +12874,9 @@
       <c r="D494" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E494" s="152"/>
+      <c r="E494" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F494"/>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -12640,7 +12892,9 @@
       <c r="D495" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="E495" s="152"/>
+      <c r="E495" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F495"/>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -12656,7 +12910,9 @@
       <c r="D496" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E496" s="95"/>
+      <c r="E496" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F496"/>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -12672,7 +12928,9 @@
       <c r="D497" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E497" s="152"/>
+      <c r="E497" s="162" t="s">
+        <v>412</v>
+      </c>
       <c r="F497"/>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -12688,7 +12946,9 @@
       <c r="D498" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="E498" s="152"/>
+      <c r="E498" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F498"/>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -12704,7 +12964,9 @@
       <c r="D499" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E499" s="152"/>
+      <c r="E499" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F499"/>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -12720,7 +12982,9 @@
       <c r="D500" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E500" s="95"/>
+      <c r="E500" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F500"/>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -12736,7 +13000,9 @@
       <c r="D501" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E501" s="152"/>
+      <c r="E501" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F501"/>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -12752,7 +13018,9 @@
       <c r="D502" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E502" s="152"/>
+      <c r="E502" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F502"/>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -12768,7 +13036,9 @@
       <c r="D503" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E503" s="152"/>
+      <c r="E503" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F503"/>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -12784,7 +13054,9 @@
       <c r="D504" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E504" s="152"/>
+      <c r="E504" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F504"/>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -12800,7 +13072,9 @@
       <c r="D505" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E505" s="152"/>
+      <c r="E505" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F505"/>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -12816,7 +13090,9 @@
       <c r="D506" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E506" s="152"/>
+      <c r="E506" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F506"/>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -12832,7 +13108,9 @@
       <c r="D507" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E507" s="152"/>
+      <c r="E507" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F507"/>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -12848,7 +13126,9 @@
       <c r="D508" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="E508" s="154"/>
+      <c r="E508" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F508"/>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -12864,7 +13144,9 @@
       <c r="D509" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E509" s="154"/>
+      <c r="E509" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F509"/>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -12880,7 +13162,9 @@
       <c r="D510" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="E510" s="95"/>
+      <c r="E510" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F510"/>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -12896,7 +13180,9 @@
       <c r="D511" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="E511" s="95"/>
+      <c r="E511" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F511"/>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -12906,11 +13192,13 @@
       <c r="B512" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C512" s="150" t="s">
+      <c r="C512" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="D512" s="150"/>
-      <c r="E512" s="150"/>
+      <c r="D512" s="102"/>
+      <c r="E512" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F512"/>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.3">
@@ -12920,11 +13208,13 @@
       <c r="B513" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C513" s="150" t="s">
+      <c r="C513" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="D513" s="150"/>
-      <c r="E513" s="150"/>
+      <c r="D513" s="102"/>
+      <c r="E513" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F513"/>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.3">
@@ -12934,11 +13224,13 @@
       <c r="B514" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C514" s="150" t="s">
+      <c r="C514" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="D514" s="150"/>
-      <c r="E514" s="150"/>
+      <c r="D514" s="102"/>
+      <c r="E514" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F514"/>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.3">
@@ -12948,11 +13240,13 @@
       <c r="B515" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="C515" s="150" t="s">
+      <c r="C515" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="D515" s="150"/>
-      <c r="E515" s="150"/>
+      <c r="D515" s="102"/>
+      <c r="E515" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F515"/>
       <c r="H515" s="62"/>
       <c r="I515"/>
@@ -12964,11 +13258,13 @@
       <c r="B516" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="C516" s="150" t="s">
+      <c r="C516" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="D516" s="150"/>
-      <c r="E516" s="150"/>
+      <c r="D516" s="102"/>
+      <c r="E516" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F516"/>
       <c r="H516" s="62"/>
       <c r="I516"/>
@@ -12980,17 +13276,19 @@
       <c r="B517" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="C517" s="150" t="s">
+      <c r="C517" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="D517" s="150"/>
-      <c r="E517" s="150"/>
+      <c r="D517" s="102"/>
+      <c r="E517" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="F517"/>
       <c r="H517" s="62"/>
       <c r="I517"/>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A518" s="149" t="s">
+      <c r="A518" s="101" t="s">
         <v>356</v>
       </c>
       <c r="B518" s="16" t="s">
@@ -13002,11 +13300,13 @@
       <c r="D518" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E518" s="160"/>
+      <c r="E518" s="159" t="s">
+        <v>406</v>
+      </c>
       <c r="I518"/>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A519" s="149" t="s">
+      <c r="A519" s="101" t="s">
         <v>357</v>
       </c>
       <c r="B519" s="16" t="s">
@@ -13018,12 +13318,14 @@
       <c r="D519" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E519" s="160"/>
+      <c r="E519" s="159" t="s">
+        <v>406</v>
+      </c>
       <c r="H519" s="62"/>
       <c r="I519"/>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A520" s="149" t="s">
+      <c r="A520" s="101" t="s">
         <v>358</v>
       </c>
       <c r="B520" s="16" t="s">
@@ -13035,12 +13337,14 @@
       <c r="D520" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="E520" s="160"/>
+      <c r="E520" s="156" t="s">
+        <v>407</v>
+      </c>
       <c r="H520" s="62"/>
       <c r="I520"/>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A521" s="149" t="s">
+      <c r="A521" s="101" t="s">
         <v>359</v>
       </c>
       <c r="B521" s="16" t="s">
@@ -13052,13 +13356,15 @@
       <c r="D521" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E521" s="160"/>
+      <c r="E521" s="156" t="s">
+        <v>407</v>
+      </c>
       <c r="F521"/>
       <c r="G521" s="62"/>
       <c r="I521"/>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A522" s="149" t="s">
+      <c r="A522" s="101" t="s">
         <v>360</v>
       </c>
       <c r="B522" s="16" t="s">
@@ -13070,55 +13376,63 @@
       <c r="D522" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E522" s="160"/>
+      <c r="E522" s="156" t="s">
+        <v>407</v>
+      </c>
       <c r="F522"/>
       <c r="G522" s="62"/>
       <c r="I522"/>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A523" s="149" t="s">
+      <c r="A523" s="101" t="s">
         <v>361</v>
       </c>
       <c r="B523" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C523" s="151" t="s">
+      <c r="C523" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="D523" s="155"/>
-      <c r="E523" s="155"/>
+      <c r="D523" s="104"/>
+      <c r="E523" s="156" t="s">
+        <v>407</v>
+      </c>
       <c r="F523"/>
       <c r="G523" s="62"/>
       <c r="I523"/>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A524" s="149" t="s">
+      <c r="A524" s="101" t="s">
         <v>362</v>
       </c>
       <c r="B524" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C524" s="151" t="s">
+      <c r="C524" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="D524" s="155"/>
-      <c r="E524" s="155"/>
+      <c r="D524" s="104"/>
+      <c r="E524" s="156" t="s">
+        <v>407</v>
+      </c>
       <c r="F524"/>
       <c r="G524" s="62"/>
       <c r="I524"/>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A525" s="149" t="s">
+      <c r="A525" s="101" t="s">
         <v>363</v>
       </c>
       <c r="B525" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C525" s="151" t="s">
+      <c r="C525" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="D525" s="155"/>
-      <c r="E525" s="155"/>
+      <c r="D525" s="104"/>
+      <c r="E525" s="156" t="s">
+        <v>407</v>
+      </c>
       <c r="F525"/>
       <c r="G525" s="62"/>
       <c r="I525"/>
@@ -13136,7 +13450,9 @@
       <c r="D526" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E526" s="99"/>
+      <c r="E526" s="157" t="s">
+        <v>408</v>
+      </c>
       <c r="F526"/>
       <c r="G526" s="62"/>
       <c r="I526"/>
@@ -13154,7 +13470,9 @@
       <c r="D527" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E527" s="99"/>
+      <c r="E527" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F527"/>
       <c r="G527" s="62"/>
       <c r="I527"/>
@@ -13172,7 +13490,9 @@
       <c r="D528" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="E528" s="99"/>
+      <c r="E528" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F528"/>
       <c r="G528" s="62"/>
       <c r="I528"/>
@@ -13190,7 +13510,9 @@
       <c r="D529" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E529" s="99"/>
+      <c r="E529" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F529"/>
       <c r="G529" s="62"/>
       <c r="I529"/>
@@ -13208,7 +13530,9 @@
       <c r="D530" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E530" s="99"/>
+      <c r="E530" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F530"/>
       <c r="G530" s="62"/>
       <c r="I530"/>
@@ -13226,7 +13550,9 @@
       <c r="D531" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E531" s="99"/>
+      <c r="E531" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F531"/>
       <c r="G531" s="62"/>
       <c r="I531"/>
@@ -13244,7 +13570,9 @@
       <c r="D532" s="89" t="s">
         <v>304</v>
       </c>
-      <c r="E532" s="99"/>
+      <c r="E532" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F532"/>
       <c r="G532" s="62"/>
       <c r="I532"/>
@@ -13262,7 +13590,9 @@
       <c r="D533" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="E533" s="99"/>
+      <c r="E533" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F533"/>
       <c r="G533" s="62"/>
       <c r="I533"/>
@@ -13280,7 +13610,9 @@
       <c r="D534" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E534" s="99"/>
+      <c r="E534" s="157" t="s">
+        <v>408</v>
+      </c>
       <c r="F534"/>
       <c r="G534" s="62"/>
       <c r="I534"/>
@@ -13298,7 +13630,9 @@
       <c r="D535" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="E535" s="99"/>
+      <c r="E535" s="157" t="s">
+        <v>408</v>
+      </c>
       <c r="F535"/>
       <c r="G535" s="62"/>
       <c r="I535"/>
@@ -13316,7 +13650,9 @@
       <c r="D536" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="E536" s="99"/>
+      <c r="E536" s="157" t="s">
+        <v>408</v>
+      </c>
       <c r="F536"/>
       <c r="G536" s="62"/>
       <c r="I536"/>
@@ -13334,7 +13670,9 @@
       <c r="D537" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E537" s="99"/>
+      <c r="E537" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F537"/>
       <c r="G537" s="62"/>
       <c r="I537"/>
@@ -13352,7 +13690,9 @@
       <c r="D538" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E538" s="99"/>
+      <c r="E538" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F538"/>
       <c r="G538" s="62"/>
       <c r="I538"/>
@@ -13370,7 +13710,9 @@
       <c r="D539" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E539" s="99"/>
+      <c r="E539" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F539"/>
       <c r="G539" s="62"/>
       <c r="I539"/>
@@ -13388,7 +13730,9 @@
       <c r="D540" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E540" s="99"/>
+      <c r="E540" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F540"/>
       <c r="G540" s="62"/>
       <c r="I540"/>
@@ -13404,8 +13748,8 @@
       <c r="D541" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="E541" s="30" t="s">
-        <v>206</v>
+      <c r="E541" s="158" t="s">
+        <v>409</v>
       </c>
       <c r="F541"/>
       <c r="G541" s="62"/>
@@ -13421,8 +13765,10 @@
       <c r="C542" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="D542" s="156"/>
-      <c r="E542" s="156"/>
+      <c r="D542" s="105"/>
+      <c r="E542" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F542"/>
       <c r="G542" s="62"/>
       <c r="I542"/>
@@ -13437,8 +13783,10 @@
       <c r="C543" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="D543" s="156"/>
-      <c r="E543" s="156"/>
+      <c r="D543" s="105"/>
+      <c r="E543" s="158" t="s">
+        <v>409</v>
+      </c>
       <c r="F543"/>
       <c r="G543" s="62"/>
       <c r="I543"/>
@@ -13456,7 +13804,9 @@
       <c r="D544" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E544" s="100"/>
+      <c r="E544" s="160" t="s">
+        <v>410</v>
+      </c>
       <c r="F544"/>
       <c r="G544" s="62"/>
       <c r="I544"/>
@@ -13474,7 +13824,9 @@
       <c r="D545" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E545" s="100"/>
+      <c r="E545" s="161" t="s">
+        <v>411</v>
+      </c>
       <c r="F545"/>
       <c r="G545" s="62"/>
       <c r="I545"/>
@@ -13492,7 +13844,9 @@
       <c r="D546" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E546" s="100"/>
+      <c r="E546" s="160" t="s">
+        <v>410</v>
+      </c>
       <c r="F546"/>
       <c r="G546" s="62"/>
       <c r="I546"/>
@@ -13510,7 +13864,9 @@
       <c r="D547" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="E547" s="100"/>
+      <c r="E547" s="161" t="s">
+        <v>411</v>
+      </c>
       <c r="F547"/>
       <c r="G547" s="62"/>
       <c r="I547"/>
@@ -13528,7 +13884,9 @@
       <c r="D548" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="E548" s="100"/>
+      <c r="E548" s="160" t="s">
+        <v>410</v>
+      </c>
       <c r="F548"/>
       <c r="G548" s="62"/>
       <c r="I548"/>
@@ -13546,7 +13904,9 @@
       <c r="D549" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E549" s="100"/>
+      <c r="E549" s="161" t="s">
+        <v>411</v>
+      </c>
       <c r="F549"/>
       <c r="G549" s="62"/>
       <c r="I549"/>
@@ -13564,7 +13924,9 @@
       <c r="D550" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E550" s="100"/>
+      <c r="E550" s="161" t="s">
+        <v>411</v>
+      </c>
       <c r="F550"/>
       <c r="G550" s="62"/>
       <c r="I550"/>
@@ -13582,7 +13944,9 @@
       <c r="D551" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="E551" s="100"/>
+      <c r="E551" s="161" t="s">
+        <v>411</v>
+      </c>
       <c r="F551"/>
       <c r="G551" s="62"/>
       <c r="I551"/>
@@ -13600,7 +13964,9 @@
       <c r="D552" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="E552" s="100"/>
+      <c r="E552" s="161" t="s">
+        <v>411</v>
+      </c>
       <c r="F552"/>
       <c r="G552" s="62"/>
       <c r="I552"/>
@@ -13615,8 +13981,10 @@
       <c r="C553" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="D553" s="157"/>
-      <c r="E553" s="157"/>
+      <c r="D553" s="106"/>
+      <c r="E553" s="161" t="s">
+        <v>411</v>
+      </c>
       <c r="F553"/>
       <c r="G553" s="62"/>
       <c r="I553"/>
@@ -13631,14 +13999,16 @@
       <c r="C554" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="D554" s="157"/>
-      <c r="E554" s="157"/>
+      <c r="D554" s="106"/>
+      <c r="E554" s="161" t="s">
+        <v>411</v>
+      </c>
       <c r="F554"/>
       <c r="G554" s="62"/>
       <c r="I554"/>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A555" s="148" t="s">
+      <c r="A555" s="100" t="s">
         <v>393</v>
       </c>
       <c r="B555" s="48" t="s">
@@ -13650,12 +14020,14 @@
       <c r="D555" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E555" s="161"/>
+      <c r="E555" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F555" s="62"/>
       <c r="I555"/>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A556" s="148" t="s">
+      <c r="A556" s="100" t="s">
         <v>394</v>
       </c>
       <c r="B556" s="48" t="s">
@@ -13667,12 +14039,14 @@
       <c r="D556" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E556" s="161"/>
+      <c r="E556" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F556" s="62"/>
       <c r="I556"/>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A557" s="148" t="s">
+      <c r="A557" s="100" t="s">
         <v>395</v>
       </c>
       <c r="B557" s="53" t="s">
@@ -13684,12 +14058,14 @@
       <c r="D557" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="E557" s="161"/>
+      <c r="E557" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F557" s="62"/>
       <c r="I557"/>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A558" s="148" t="s">
+      <c r="A558" s="100" t="s">
         <v>396</v>
       </c>
       <c r="B558" s="53" t="s">
@@ -13701,13 +14077,15 @@
       <c r="D558" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="E558" s="161"/>
+      <c r="E558" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F558"/>
       <c r="G558" s="62"/>
       <c r="I558"/>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A559" s="148" t="s">
+      <c r="A559" s="100" t="s">
         <v>397</v>
       </c>
       <c r="B559" s="53" t="s">
@@ -13719,13 +14097,15 @@
       <c r="D559" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="E559" s="161"/>
+      <c r="E559" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F559"/>
       <c r="G559" s="62"/>
       <c r="I559"/>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A560" s="148" t="s">
+      <c r="A560" s="100" t="s">
         <v>398</v>
       </c>
       <c r="B560" s="48" t="s">
@@ -13737,13 +14117,15 @@
       <c r="D560" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="E560" s="161"/>
+      <c r="E560" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F560"/>
       <c r="G560" s="62"/>
       <c r="I560"/>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A561" s="148" t="s">
+      <c r="A561" s="100" t="s">
         <v>399</v>
       </c>
       <c r="B561" s="48" t="s">
@@ -13755,13 +14137,15 @@
       <c r="D561" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="E561" s="161"/>
+      <c r="E561" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F561"/>
       <c r="G561" s="62"/>
       <c r="I561"/>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A562" s="148" t="s">
+      <c r="A562" s="100" t="s">
         <v>400</v>
       </c>
       <c r="B562" s="94">
@@ -13770,14 +14154,16 @@
       <c r="C562" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="D562" s="158"/>
-      <c r="E562" s="159"/>
+      <c r="D562" s="107"/>
+      <c r="E562" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F562"/>
       <c r="G562" s="62"/>
       <c r="I562"/>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A563" s="148" t="s">
+      <c r="A563" s="100" t="s">
         <v>401</v>
       </c>
       <c r="B563" s="94">
@@ -13786,14 +14172,16 @@
       <c r="C563" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="D563" s="159"/>
-      <c r="E563" s="159"/>
+      <c r="D563" s="108"/>
+      <c r="E563" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F563"/>
       <c r="G563" s="62"/>
       <c r="I563"/>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A564" s="148" t="s">
+      <c r="A564" s="100" t="s">
         <v>402</v>
       </c>
       <c r="B564" s="94">
@@ -13802,8 +14190,10 @@
       <c r="C564" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="D564" s="159"/>
-      <c r="E564" s="159"/>
+      <c r="D564" s="108"/>
+      <c r="E564" s="163" t="s">
+        <v>413</v>
+      </c>
       <c r="F564"/>
       <c r="G564" s="62"/>
       <c r="I564"/>
@@ -13825,6 +14215,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C435:E435"/>
+    <mergeCell ref="C436:E438"/>
+    <mergeCell ref="K427:K431"/>
+    <mergeCell ref="K434:K438"/>
+    <mergeCell ref="C432:E432"/>
+    <mergeCell ref="C433:E433"/>
+    <mergeCell ref="C434:E434"/>
+    <mergeCell ref="C429:E429"/>
+    <mergeCell ref="C430:E430"/>
+    <mergeCell ref="C431:E431"/>
+    <mergeCell ref="C426:E426"/>
+    <mergeCell ref="C427:E427"/>
+    <mergeCell ref="C428:E428"/>
+    <mergeCell ref="C327:E327"/>
+    <mergeCell ref="C328:E328"/>
+    <mergeCell ref="C425:E425"/>
+    <mergeCell ref="C325:E325"/>
+    <mergeCell ref="C326:E326"/>
+    <mergeCell ref="C423:E423"/>
+    <mergeCell ref="C424:E424"/>
+    <mergeCell ref="C329:E329"/>
+    <mergeCell ref="C330:E330"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C324:E324"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="C233:E233"/>
+    <mergeCell ref="C321:E321"/>
+    <mergeCell ref="C322:E322"/>
+    <mergeCell ref="C323:E323"/>
+    <mergeCell ref="C234:E234"/>
+    <mergeCell ref="C235:E235"/>
     <mergeCell ref="A449:E449"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A73:F73"/>
@@ -13841,45 +14270,6 @@
     <mergeCell ref="C229:E229"/>
     <mergeCell ref="C230:E230"/>
     <mergeCell ref="C231:E231"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C324:E324"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="C233:E233"/>
-    <mergeCell ref="C321:E321"/>
-    <mergeCell ref="C322:E322"/>
-    <mergeCell ref="C323:E323"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C234:E234"/>
-    <mergeCell ref="C235:E235"/>
-    <mergeCell ref="C327:E327"/>
-    <mergeCell ref="C328:E328"/>
-    <mergeCell ref="C425:E425"/>
-    <mergeCell ref="C325:E325"/>
-    <mergeCell ref="C326:E326"/>
-    <mergeCell ref="C423:E423"/>
-    <mergeCell ref="C424:E424"/>
-    <mergeCell ref="C329:E329"/>
-    <mergeCell ref="C330:E330"/>
-    <mergeCell ref="C434:E434"/>
-    <mergeCell ref="C429:E429"/>
-    <mergeCell ref="C430:E430"/>
-    <mergeCell ref="C431:E431"/>
-    <mergeCell ref="C426:E426"/>
-    <mergeCell ref="C427:E427"/>
-    <mergeCell ref="C428:E428"/>
-    <mergeCell ref="C435:E435"/>
-    <mergeCell ref="C436:E438"/>
-    <mergeCell ref="K427:K431"/>
-    <mergeCell ref="K434:K438"/>
-    <mergeCell ref="C432:E432"/>
-    <mergeCell ref="C433:E433"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
